--- a/biology/Botanique/Trichomanes_alatum/Trichomanes_alatum.xlsx
+++ b/biology/Botanique/Trichomanes_alatum/Trichomanes_alatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes alatum est une espèce de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 le rhizome se termine en port cespiteux, avec un court stipe où s'ordonnent des racines brun-foncé à noires ;
@@ -520,7 +534,7 @@
 les sores sont situés à la base des segments ;
 l'indusie est tubulaire ;
 chaque sore porte une longue columelle foncée (de deux à trois fois la longueur de l'indusie).
-Comme Vandenboschia speciosa, il semblerait que son stade gamétophyte puisse perdurer[1].
+Comme Vandenboschia speciosa, il semblerait que son stade gamétophyte puisse perdurer.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, hémi-épiphyte, est présente en Amérique tropicale, dont la Guyane et aux Antilles.
 </t>
@@ -580,7 +596,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Trichomanes alatum est classée dans le sous-genre Trichomanes.
 Elle compte un synonyme : Trichomanes lineare Bosch (1861), homonyme de Trichomanes lineare Sw..
@@ -621,16 +639,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Charles Plumier, sous le nom de Filicula tota transluscens, Traité des fougères de l'Amérique, Paris, 1705 - p. 73-74 et figure 50 D. La confirmation à partir de la planche, rapprochée du spécimen n° 25 conservé dans l'herbier de Sébastien Vaillant, a été apportée par Georges Cremers et Cécile Aupic en 2007[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Charles Plumier, sous le nom de Filicula tota transluscens, Traité des fougères de l'Amérique, Paris, 1705 - p. 73-74 et figure 50 D. La confirmation à partir de la planche, rapprochée du spécimen n° 25 conservé dans l'herbier de Sébastien Vaillant, a été apportée par Georges Cremers et Cécile Aupic en 2007.
 La description qu'en donne Charles Plumier est la suivante :
 « Quand on arrache de la terre la racine de cette plante, elle ressemble à une petite queue de cheval, n'étant proprement formée que de quantité de fibres assez longues, très noires et très déliées ; elle ne pousse de la tête tout au plus que trois ou quatre feuilles longues d'environ demi-pied, larges de près de deux pouces, si minces et si déliées que, quand on les regarde au soleil, elles paraissent comme transparentes ; leur extrémité est pointue, et tout leur contour découpé fort profondément en des parties terminées aussi en pointe, et toutes refendues encore en plusieurs autres parties un peu émoussées, et crénelées par une petite dentelure : leur devant est tout-à-fait uni, luisant et d'un très beau vert, mais leur dos, soutenu par une petite nervure noire, est presque entièrement couvert d'une petite mousse verdâtre ou d'une poussière rousse.
 Je n'ai jamais pu découvrir la semence de cette plante. »
-En 1800, Olof Peter Swartz, à partir d'un exemplaire de la Jamaïque, la nomme Trichomanes alatum en référence à la membrane le long du pétiole et du rachis[3].
-En 1851, Karel Bořivoj Presl la place dans le sous-genre Pseudoachomanes[4].
-En 1974, Conrad Vernon Morton la place dans la section Acarpacrium du sous-genre Achomanes du genre Trichomanes[5].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes alatum comme espèce représentative du genre Trichomanes, sous-genre Trichomanes[6].
+En 1800, Olof Peter Swartz, à partir d'un exemplaire de la Jamaïque, la nomme Trichomanes alatum en référence à la membrane le long du pétiole et du rachis.
+En 1851, Karel Bořivoj Presl la place dans le sous-genre Pseudoachomanes.
+En 1974, Conrad Vernon Morton la place dans la section Acarpacrium du sous-genre Achomanes du genre Trichomanes.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes alatum comme espèce représentative du genre Trichomanes, sous-genre Trichomanes.
 </t>
         </is>
       </c>
